--- a/Microsoft 365/Current Channel/accesscontrols.xlsx
+++ b/Microsoft 365/Current Channel/accesscontrols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26921"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcoard\OneDrive - Microsoft\Documents\RibbonX Upload\CC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RibbonXThing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CAB60E8-8DDD-412A-BE63-09F24AA1EF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D74827A3-2F22-42B0-B6A2-78F68561AE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="43200" windowHeight="23325"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="15345"/>
   </bookViews>
   <sheets>
     <sheet name="accesscontrols" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8591" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8571" uniqueCount="925">
   <si>
     <t>Policy ID</t>
   </si>
@@ -2805,21 +2805,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -2827,7 +2827,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2835,7 +2835,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2843,35 +2843,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2879,7 +2879,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2887,14 +2887,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2902,14 +2902,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2917,7 +2917,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2925,14 +2925,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3339,8 +3339,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I1676" totalsRowShown="0">
-  <autoFilter ref="A1:I1676"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I1673" totalsRowShown="0">
+  <autoFilter ref="A1:I1673"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Control Name"/>
     <tableColumn id="2" name="Control Type"/>
@@ -3367,39 +3367,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3451,7 +3451,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3562,13 +3562,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -3577,6 +3570,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3641,11 +3641,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3653,7 +3673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1676"/>
+  <dimension ref="A1:I1673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -3661,15 +3681,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="1" max="1" width="49.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -34859,8 +34879,11 @@
       </c>
     </row>
     <row r="1536" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1536" t="s">
+        <v>864</v>
+      </c>
       <c r="B1536" t="s">
-        <v>9</v>
+        <v>858</v>
       </c>
       <c r="C1536" t="s">
         <v>825</v>
@@ -34874,19 +34897,16 @@
       <c r="F1536" t="s">
         <v>855</v>
       </c>
-      <c r="G1536" t="s">
-        <v>862</v>
-      </c>
       <c r="H1536">
-        <v>22579</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1537" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B1537" t="s">
-        <v>858</v>
+        <v>39</v>
       </c>
       <c r="C1537" t="s">
         <v>825</v>
@@ -34900,16 +34920,16 @@
       <c r="F1537" t="s">
         <v>855</v>
       </c>
+      <c r="G1537" t="s">
+        <v>864</v>
+      </c>
       <c r="H1537">
-        <v>24860</v>
+        <v>22688</v>
       </c>
     </row>
     <row r="1538" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1538" t="s">
-        <v>865</v>
-      </c>
       <c r="B1538" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C1538" t="s">
         <v>825</v>
@@ -34927,12 +34947,12 @@
         <v>864</v>
       </c>
       <c r="H1538">
-        <v>22688</v>
+        <v>33480</v>
       </c>
     </row>
     <row r="1539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1539" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="C1539" t="s">
         <v>825</v>
@@ -34950,10 +34970,13 @@
         <v>864</v>
       </c>
       <c r="H1539">
-        <v>33480</v>
+        <v>33988</v>
       </c>
     </row>
     <row r="1540" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1540" t="s">
+        <v>866</v>
+      </c>
       <c r="B1540" t="s">
         <v>39</v>
       </c>
@@ -34973,15 +34996,12 @@
         <v>864</v>
       </c>
       <c r="H1540">
-        <v>33988</v>
+        <v>26728</v>
       </c>
     </row>
     <row r="1541" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1541" t="s">
-        <v>866</v>
-      </c>
       <c r="B1541" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C1541" t="s">
         <v>825</v>
@@ -34999,12 +35019,15 @@
         <v>864</v>
       </c>
       <c r="H1541">
-        <v>26728</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1542" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1542" t="s">
+        <v>867</v>
+      </c>
       <c r="B1542" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C1542" t="s">
         <v>825</v>
@@ -35022,12 +35045,12 @@
         <v>864</v>
       </c>
       <c r="H1542">
-        <v>22579</v>
+        <v>24962</v>
       </c>
     </row>
     <row r="1543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1543" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B1543" t="s">
         <v>39</v>
@@ -35048,12 +35071,12 @@
         <v>864</v>
       </c>
       <c r="H1543">
-        <v>24962</v>
+        <v>24963</v>
       </c>
     </row>
     <row r="1544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1544" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B1544" t="s">
         <v>39</v>
@@ -35074,12 +35097,12 @@
         <v>864</v>
       </c>
       <c r="H1544">
-        <v>24963</v>
+        <v>24980</v>
       </c>
     </row>
     <row r="1545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1545" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B1545" t="s">
         <v>39</v>
@@ -35090,25 +35113,16 @@
       <c r="D1545" t="s">
         <v>852</v>
       </c>
-      <c r="E1545" t="s">
-        <v>853</v>
-      </c>
-      <c r="F1545" t="s">
-        <v>855</v>
-      </c>
-      <c r="G1545" t="s">
-        <v>864</v>
-      </c>
       <c r="H1545">
-        <v>24980</v>
+        <v>34382</v>
       </c>
     </row>
     <row r="1546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1546" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B1546" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C1546" t="s">
         <v>825</v>
@@ -35116,13 +35130,16 @@
       <c r="D1546" t="s">
         <v>852</v>
       </c>
+      <c r="E1546" t="s">
+        <v>870</v>
+      </c>
       <c r="H1546">
-        <v>34382</v>
+        <v>25170</v>
       </c>
     </row>
     <row r="1547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1547" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B1547" t="s">
         <v>96</v>
@@ -35137,15 +35154,15 @@
         <v>870</v>
       </c>
       <c r="H1547">
-        <v>25170</v>
+        <v>34333</v>
       </c>
     </row>
     <row r="1548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1548" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B1548" t="s">
-        <v>96</v>
+        <v>856</v>
       </c>
       <c r="C1548" t="s">
         <v>825</v>
@@ -35157,15 +35174,15 @@
         <v>870</v>
       </c>
       <c r="H1548">
-        <v>34333</v>
+        <v>34335</v>
       </c>
     </row>
     <row r="1549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1549" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="B1549" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C1549" t="s">
         <v>825</v>
@@ -35176,16 +35193,19 @@
       <c r="E1549" t="s">
         <v>870</v>
       </c>
+      <c r="F1549" t="s">
+        <v>873</v>
+      </c>
       <c r="H1549">
-        <v>34335</v>
+        <v>25169</v>
       </c>
     </row>
     <row r="1550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1550" t="s">
-        <v>857</v>
+        <v>874</v>
       </c>
       <c r="B1550" t="s">
-        <v>858</v>
+        <v>39</v>
       </c>
       <c r="C1550" t="s">
         <v>825</v>
@@ -35199,16 +35219,16 @@
       <c r="F1550" t="s">
         <v>873</v>
       </c>
+      <c r="G1550" t="s">
+        <v>857</v>
+      </c>
       <c r="H1550">
-        <v>25169</v>
+        <v>34337</v>
       </c>
     </row>
     <row r="1551" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1551" t="s">
-        <v>874</v>
-      </c>
       <c r="B1551" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C1551" t="s">
         <v>825</v>
@@ -35226,12 +35246,15 @@
         <v>857</v>
       </c>
       <c r="H1551">
-        <v>34337</v>
+        <v>33480</v>
       </c>
     </row>
     <row r="1552" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1552" t="s">
+        <v>859</v>
+      </c>
       <c r="B1552" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="C1552" t="s">
         <v>825</v>
@@ -35249,15 +35272,15 @@
         <v>857</v>
       </c>
       <c r="H1552">
-        <v>33480</v>
+        <v>24088</v>
       </c>
     </row>
     <row r="1553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1553" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B1553" t="s">
-        <v>9</v>
+        <v>858</v>
       </c>
       <c r="C1553" t="s">
         <v>825</v>
@@ -35271,19 +35294,16 @@
       <c r="F1553" t="s">
         <v>873</v>
       </c>
-      <c r="G1553" t="s">
-        <v>857</v>
-      </c>
       <c r="H1553">
-        <v>24088</v>
+        <v>33246</v>
       </c>
     </row>
     <row r="1554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1554" t="s">
-        <v>860</v>
+        <v>875</v>
       </c>
       <c r="B1554" t="s">
-        <v>858</v>
+        <v>39</v>
       </c>
       <c r="C1554" t="s">
         <v>825</v>
@@ -35297,16 +35317,19 @@
       <c r="F1554" t="s">
         <v>873</v>
       </c>
+      <c r="G1554" t="s">
+        <v>860</v>
+      </c>
       <c r="H1554">
-        <v>33246</v>
+        <v>34339</v>
       </c>
     </row>
     <row r="1555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1555" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="B1555" t="s">
-        <v>39</v>
+        <v>858</v>
       </c>
       <c r="C1555" t="s">
         <v>825</v>
@@ -35320,19 +35343,16 @@
       <c r="F1555" t="s">
         <v>873</v>
       </c>
-      <c r="G1555" t="s">
-        <v>860</v>
-      </c>
       <c r="H1555">
-        <v>34339</v>
+        <v>27308</v>
       </c>
     </row>
     <row r="1556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1556" t="s">
-        <v>862</v>
+        <v>876</v>
       </c>
       <c r="B1556" t="s">
-        <v>858</v>
+        <v>39</v>
       </c>
       <c r="C1556" t="s">
         <v>825</v>
@@ -35346,16 +35366,19 @@
       <c r="F1556" t="s">
         <v>873</v>
       </c>
+      <c r="G1556" t="s">
+        <v>862</v>
+      </c>
       <c r="H1556">
-        <v>27308</v>
+        <v>34340</v>
       </c>
     </row>
     <row r="1557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1557" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="B1557" t="s">
-        <v>39</v>
+        <v>858</v>
       </c>
       <c r="C1557" t="s">
         <v>825</v>
@@ -35369,16 +35392,16 @@
       <c r="F1557" t="s">
         <v>873</v>
       </c>
-      <c r="G1557" t="s">
-        <v>862</v>
-      </c>
       <c r="H1557">
-        <v>34340</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1558" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1558" t="s">
+        <v>877</v>
+      </c>
       <c r="B1558" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C1558" t="s">
         <v>825</v>
@@ -35393,18 +35416,15 @@
         <v>873</v>
       </c>
       <c r="G1558" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="H1558">
-        <v>22579</v>
+        <v>34347</v>
       </c>
     </row>
     <row r="1559" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1559" t="s">
-        <v>864</v>
-      </c>
       <c r="B1559" t="s">
-        <v>858</v>
+        <v>96</v>
       </c>
       <c r="C1559" t="s">
         <v>825</v>
@@ -35418,14 +35438,14 @@
       <c r="F1559" t="s">
         <v>873</v>
       </c>
+      <c r="G1559" t="s">
+        <v>864</v>
+      </c>
       <c r="H1559">
-        <v>24860</v>
+        <v>33480</v>
       </c>
     </row>
     <row r="1560" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1560" t="s">
-        <v>877</v>
-      </c>
       <c r="B1560" t="s">
         <v>39</v>
       </c>
@@ -35445,12 +35465,15 @@
         <v>864</v>
       </c>
       <c r="H1560">
-        <v>34347</v>
+        <v>34369</v>
       </c>
     </row>
     <row r="1561" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1561" t="s">
+        <v>878</v>
+      </c>
       <c r="B1561" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="C1561" t="s">
         <v>825</v>
@@ -35468,12 +35491,12 @@
         <v>864</v>
       </c>
       <c r="H1561">
-        <v>33480</v>
+        <v>34365</v>
       </c>
     </row>
     <row r="1562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1562" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C1562" t="s">
         <v>825</v>
@@ -35491,15 +35514,15 @@
         <v>864</v>
       </c>
       <c r="H1562">
-        <v>34369</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1563" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="B1563" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C1563" t="s">
         <v>825</v>
@@ -35513,16 +35536,16 @@
       <c r="F1563" t="s">
         <v>873</v>
       </c>
-      <c r="G1563" t="s">
-        <v>864</v>
-      </c>
       <c r="H1563">
-        <v>34365</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1564" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1564" t="s">
+        <v>879</v>
+      </c>
       <c r="B1564" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C1564" t="s">
         <v>825</v>
@@ -35540,15 +35563,15 @@
         <v>864</v>
       </c>
       <c r="H1564">
-        <v>22579</v>
+        <v>34357</v>
       </c>
     </row>
     <row r="1565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1565" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="B1565" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="C1565" t="s">
         <v>825</v>
@@ -35562,16 +35585,19 @@
       <c r="F1565" t="s">
         <v>873</v>
       </c>
+      <c r="G1565" t="s">
+        <v>864</v>
+      </c>
       <c r="H1565">
-        <v>24860</v>
+        <v>34358</v>
       </c>
     </row>
     <row r="1566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1566" t="s">
-        <v>879</v>
+        <v>857</v>
       </c>
       <c r="B1566" t="s">
-        <v>39</v>
+        <v>858</v>
       </c>
       <c r="C1566" t="s">
         <v>825</v>
@@ -35582,19 +35608,13 @@
       <c r="E1566" t="s">
         <v>870</v>
       </c>
-      <c r="F1566" t="s">
-        <v>873</v>
-      </c>
-      <c r="G1566" t="s">
-        <v>864</v>
-      </c>
       <c r="H1566">
-        <v>34357</v>
+        <v>25169</v>
       </c>
     </row>
     <row r="1567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1567" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="B1567" t="s">
         <v>39</v>
@@ -35609,21 +35629,15 @@
         <v>870</v>
       </c>
       <c r="F1567" t="s">
-        <v>873</v>
-      </c>
-      <c r="G1567" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="H1567">
-        <v>34358</v>
+        <v>34337</v>
       </c>
     </row>
     <row r="1568" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1568" t="s">
-        <v>857</v>
-      </c>
       <c r="B1568" t="s">
-        <v>858</v>
+        <v>96</v>
       </c>
       <c r="C1568" t="s">
         <v>825</v>
@@ -35634,16 +35648,22 @@
       <c r="E1568" t="s">
         <v>870</v>
       </c>
+      <c r="F1568" t="s">
+        <v>857</v>
+      </c>
+      <c r="G1568" t="s">
+        <v>874</v>
+      </c>
       <c r="H1568">
-        <v>25169</v>
+        <v>33480</v>
       </c>
     </row>
     <row r="1569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1569" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="B1569" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C1569" t="s">
         <v>825</v>
@@ -35657,13 +35677,19 @@
       <c r="F1569" t="s">
         <v>857</v>
       </c>
+      <c r="G1569" t="s">
+        <v>874</v>
+      </c>
       <c r="H1569">
-        <v>34337</v>
+        <v>24088</v>
       </c>
     </row>
     <row r="1570" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1570" t="s">
+        <v>874</v>
+      </c>
       <c r="B1570" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="C1570" t="s">
         <v>825</v>
@@ -35674,22 +35700,13 @@
       <c r="E1570" t="s">
         <v>870</v>
       </c>
-      <c r="F1570" t="s">
-        <v>857</v>
-      </c>
-      <c r="G1570" t="s">
-        <v>874</v>
-      </c>
       <c r="H1570">
-        <v>33480</v>
+        <v>34337</v>
       </c>
     </row>
     <row r="1571" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1571" t="s">
-        <v>859</v>
-      </c>
       <c r="B1571" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="C1571" t="s">
         <v>825</v>
@@ -35701,21 +35718,18 @@
         <v>870</v>
       </c>
       <c r="F1571" t="s">
-        <v>857</v>
-      </c>
-      <c r="G1571" t="s">
         <v>874</v>
       </c>
       <c r="H1571">
-        <v>24088</v>
+        <v>33480</v>
       </c>
     </row>
     <row r="1572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1572" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="B1572" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C1572" t="s">
         <v>825</v>
@@ -35726,8 +35740,11 @@
       <c r="E1572" t="s">
         <v>870</v>
       </c>
+      <c r="F1572" t="s">
+        <v>874</v>
+      </c>
       <c r="H1572">
-        <v>34337</v>
+        <v>24088</v>
       </c>
     </row>
     <row r="1573" spans="1:8" x14ac:dyDescent="0.25">
@@ -35743,9 +35760,6 @@
       <c r="E1573" t="s">
         <v>870</v>
       </c>
-      <c r="F1573" t="s">
-        <v>874</v>
-      </c>
       <c r="H1573">
         <v>33480</v>
       </c>
@@ -35766,16 +35780,16 @@
       <c r="E1574" t="s">
         <v>870</v>
       </c>
-      <c r="F1574" t="s">
-        <v>874</v>
-      </c>
       <c r="H1574">
         <v>24088</v>
       </c>
     </row>
     <row r="1575" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1575" t="s">
+        <v>860</v>
+      </c>
       <c r="B1575" t="s">
-        <v>96</v>
+        <v>858</v>
       </c>
       <c r="C1575" t="s">
         <v>825</v>
@@ -35787,15 +35801,15 @@
         <v>870</v>
       </c>
       <c r="H1575">
-        <v>33480</v>
+        <v>33246</v>
       </c>
     </row>
     <row r="1576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1576" t="s">
-        <v>859</v>
+        <v>875</v>
       </c>
       <c r="B1576" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C1576" t="s">
         <v>825</v>
@@ -35806,16 +35820,19 @@
       <c r="E1576" t="s">
         <v>870</v>
       </c>
+      <c r="F1576" t="s">
+        <v>860</v>
+      </c>
       <c r="H1576">
-        <v>24088</v>
+        <v>34339</v>
       </c>
     </row>
     <row r="1577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1577" t="s">
-        <v>860</v>
+        <v>875</v>
       </c>
       <c r="B1577" t="s">
-        <v>858</v>
+        <v>39</v>
       </c>
       <c r="C1577" t="s">
         <v>825</v>
@@ -35827,15 +35844,15 @@
         <v>870</v>
       </c>
       <c r="H1577">
-        <v>33246</v>
+        <v>34339</v>
       </c>
     </row>
     <row r="1578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1578" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="B1578" t="s">
-        <v>39</v>
+        <v>858</v>
       </c>
       <c r="C1578" t="s">
         <v>825</v>
@@ -35846,16 +35863,13 @@
       <c r="E1578" t="s">
         <v>870</v>
       </c>
-      <c r="F1578" t="s">
-        <v>860</v>
-      </c>
       <c r="H1578">
-        <v>34339</v>
+        <v>27308</v>
       </c>
     </row>
     <row r="1579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1579" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B1579" t="s">
         <v>39</v>
@@ -35869,16 +35883,19 @@
       <c r="E1579" t="s">
         <v>870</v>
       </c>
+      <c r="F1579" t="s">
+        <v>862</v>
+      </c>
       <c r="H1579">
-        <v>34339</v>
+        <v>34340</v>
       </c>
     </row>
     <row r="1580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1580" t="s">
-        <v>862</v>
+        <v>876</v>
       </c>
       <c r="B1580" t="s">
-        <v>858</v>
+        <v>39</v>
       </c>
       <c r="C1580" t="s">
         <v>825</v>
@@ -35890,15 +35907,15 @@
         <v>870</v>
       </c>
       <c r="H1580">
-        <v>27308</v>
+        <v>34340</v>
       </c>
     </row>
     <row r="1581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1581" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="B1581" t="s">
-        <v>39</v>
+        <v>858</v>
       </c>
       <c r="C1581" t="s">
         <v>825</v>
@@ -35909,16 +35926,16 @@
       <c r="E1581" t="s">
         <v>870</v>
       </c>
-      <c r="F1581" t="s">
-        <v>862</v>
-      </c>
       <c r="H1581">
-        <v>34340</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1582" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1582" t="s">
+        <v>877</v>
+      </c>
       <c r="B1582" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C1582" t="s">
         <v>825</v>
@@ -35930,21 +35947,15 @@
         <v>870</v>
       </c>
       <c r="F1582" t="s">
-        <v>862</v>
-      </c>
-      <c r="G1582" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="H1582">
-        <v>22579</v>
+        <v>34347</v>
       </c>
     </row>
     <row r="1583" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1583" t="s">
-        <v>876</v>
-      </c>
       <c r="B1583" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C1583" t="s">
         <v>825</v>
@@ -35955,13 +35966,19 @@
       <c r="E1583" t="s">
         <v>870</v>
       </c>
+      <c r="F1583" t="s">
+        <v>864</v>
+      </c>
+      <c r="G1583" t="s">
+        <v>877</v>
+      </c>
       <c r="H1583">
-        <v>34340</v>
+        <v>33480</v>
       </c>
     </row>
     <row r="1584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1584" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C1584" t="s">
         <v>825</v>
@@ -35973,15 +35990,18 @@
         <v>870</v>
       </c>
       <c r="F1584" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="H1584">
-        <v>22579</v>
+        <v>34369</v>
       </c>
     </row>
     <row r="1585" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1585" t="s">
+        <v>878</v>
+      </c>
       <c r="B1585" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C1585" t="s">
         <v>825</v>
@@ -35992,16 +36012,16 @@
       <c r="E1585" t="s">
         <v>870</v>
       </c>
+      <c r="F1585" t="s">
+        <v>864</v>
+      </c>
       <c r="H1585">
-        <v>22579</v>
+        <v>34365</v>
       </c>
     </row>
     <row r="1586" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1586" t="s">
-        <v>864</v>
-      </c>
       <c r="B1586" t="s">
-        <v>858</v>
+        <v>9</v>
       </c>
       <c r="C1586" t="s">
         <v>825</v>
@@ -36012,8 +36032,14 @@
       <c r="E1586" t="s">
         <v>870</v>
       </c>
+      <c r="F1586" t="s">
+        <v>864</v>
+      </c>
+      <c r="G1586" t="s">
+        <v>878</v>
+      </c>
       <c r="H1586">
-        <v>24860</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1587" spans="1:8" x14ac:dyDescent="0.25">
@@ -36032,9 +36058,6 @@
       <c r="E1587" t="s">
         <v>870</v>
       </c>
-      <c r="F1587" t="s">
-        <v>864</v>
-      </c>
       <c r="H1587">
         <v>34347</v>
       </c>
@@ -36053,9 +36076,6 @@
         <v>870</v>
       </c>
       <c r="F1588" t="s">
-        <v>864</v>
-      </c>
-      <c r="G1588" t="s">
         <v>877</v>
       </c>
       <c r="H1588">
@@ -36075,9 +36095,6 @@
       <c r="E1589" t="s">
         <v>870</v>
       </c>
-      <c r="F1589" t="s">
-        <v>864</v>
-      </c>
       <c r="H1589">
         <v>34369</v>
       </c>
@@ -36098,9 +36115,6 @@
       <c r="E1590" t="s">
         <v>870</v>
       </c>
-      <c r="F1590" t="s">
-        <v>864</v>
-      </c>
       <c r="H1590">
         <v>34365</v>
       </c>
@@ -36119,9 +36133,6 @@
         <v>870</v>
       </c>
       <c r="F1591" t="s">
-        <v>864</v>
-      </c>
-      <c r="G1591" t="s">
         <v>878</v>
       </c>
       <c r="H1591">
@@ -36129,11 +36140,8 @@
       </c>
     </row>
     <row r="1592" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1592" t="s">
-        <v>877</v>
-      </c>
       <c r="B1592" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C1592" t="s">
         <v>825</v>
@@ -36145,10 +36153,13 @@
         <v>870</v>
       </c>
       <c r="H1592">
-        <v>34347</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1593" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1593" t="s">
+        <v>864</v>
+      </c>
       <c r="B1593" t="s">
         <v>96</v>
       </c>
@@ -36161,14 +36172,14 @@
       <c r="E1593" t="s">
         <v>870</v>
       </c>
-      <c r="F1593" t="s">
-        <v>877</v>
-      </c>
       <c r="H1593">
-        <v>33480</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1594" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1594" t="s">
+        <v>881</v>
+      </c>
       <c r="B1594" t="s">
         <v>39</v>
       </c>
@@ -36182,15 +36193,12 @@
         <v>870</v>
       </c>
       <c r="H1594">
-        <v>34369</v>
+        <v>34675</v>
       </c>
     </row>
     <row r="1595" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1595" t="s">
-        <v>878</v>
-      </c>
       <c r="B1595" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C1595" t="s">
         <v>825</v>
@@ -36201,13 +36209,16 @@
       <c r="E1595" t="s">
         <v>870</v>
       </c>
+      <c r="F1595" t="s">
+        <v>881</v>
+      </c>
       <c r="H1595">
-        <v>34365</v>
+        <v>33480</v>
       </c>
     </row>
     <row r="1596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1596" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C1596" t="s">
         <v>825</v>
@@ -36218,19 +36229,16 @@
       <c r="E1596" t="s">
         <v>870</v>
       </c>
-      <c r="F1596" t="s">
-        <v>878</v>
-      </c>
       <c r="H1596">
-        <v>22579</v>
+        <v>34676</v>
       </c>
     </row>
     <row r="1597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1597" t="s">
-        <v>864</v>
+        <v>882</v>
       </c>
       <c r="B1597" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="C1597" t="s">
         <v>825</v>
@@ -36242,15 +36250,12 @@
         <v>870</v>
       </c>
       <c r="H1597">
-        <v>24860</v>
+        <v>34677</v>
       </c>
     </row>
     <row r="1598" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1598" t="s">
-        <v>881</v>
-      </c>
       <c r="B1598" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C1598" t="s">
         <v>825</v>
@@ -36261,13 +36266,19 @@
       <c r="E1598" t="s">
         <v>870</v>
       </c>
+      <c r="F1598" t="s">
+        <v>882</v>
+      </c>
       <c r="H1598">
-        <v>34675</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1599" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1599" t="s">
+        <v>879</v>
+      </c>
       <c r="B1599" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="C1599" t="s">
         <v>825</v>
@@ -36279,15 +36290,15 @@
         <v>870</v>
       </c>
       <c r="F1599" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="H1599">
-        <v>33480</v>
+        <v>34357</v>
       </c>
     </row>
     <row r="1600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1600" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C1600" t="s">
         <v>825</v>
@@ -36298,13 +36309,19 @@
       <c r="E1600" t="s">
         <v>870</v>
       </c>
+      <c r="F1600" t="s">
+        <v>864</v>
+      </c>
+      <c r="G1600" t="s">
+        <v>879</v>
+      </c>
       <c r="H1600">
-        <v>34676</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1601" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B1601" t="s">
         <v>39</v>
@@ -36319,7 +36336,7 @@
         <v>870</v>
       </c>
       <c r="H1601">
-        <v>34677</v>
+        <v>34357</v>
       </c>
     </row>
     <row r="1602" spans="1:8" x14ac:dyDescent="0.25">
@@ -36336,7 +36353,7 @@
         <v>870</v>
       </c>
       <c r="F1602" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="H1602">
         <v>22579</v>
@@ -36344,7 +36361,7 @@
     </row>
     <row r="1603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1603" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B1603" t="s">
         <v>39</v>
@@ -36362,12 +36379,15 @@
         <v>864</v>
       </c>
       <c r="H1603">
-        <v>34357</v>
+        <v>34358</v>
       </c>
     </row>
     <row r="1604" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1604" t="s">
+        <v>880</v>
+      </c>
       <c r="B1604" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C1604" t="s">
         <v>825</v>
@@ -36378,22 +36398,16 @@
       <c r="E1604" t="s">
         <v>870</v>
       </c>
-      <c r="F1604" t="s">
-        <v>864</v>
-      </c>
-      <c r="G1604" t="s">
-        <v>879</v>
-      </c>
       <c r="H1604">
-        <v>22579</v>
+        <v>34358</v>
       </c>
     </row>
     <row r="1605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1605" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="B1605" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C1605" t="s">
         <v>825</v>
@@ -36405,12 +36419,15 @@
         <v>870</v>
       </c>
       <c r="H1605">
-        <v>34357</v>
+        <v>34334</v>
       </c>
     </row>
     <row r="1606" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1606" t="s">
+        <v>884</v>
+      </c>
       <c r="B1606" t="s">
-        <v>9</v>
+        <v>856</v>
       </c>
       <c r="C1606" t="s">
         <v>825</v>
@@ -36421,19 +36438,16 @@
       <c r="E1606" t="s">
         <v>870</v>
       </c>
-      <c r="F1606" t="s">
-        <v>879</v>
-      </c>
       <c r="H1606">
-        <v>22579</v>
+        <v>34336</v>
       </c>
     </row>
     <row r="1607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1607" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="B1607" t="s">
-        <v>39</v>
+        <v>858</v>
       </c>
       <c r="C1607" t="s">
         <v>825</v>
@@ -36445,15 +36459,15 @@
         <v>870</v>
       </c>
       <c r="F1607" t="s">
-        <v>864</v>
+        <v>884</v>
       </c>
       <c r="H1607">
-        <v>34358</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1608" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="B1608" t="s">
         <v>39</v>
@@ -36467,14 +36481,17 @@
       <c r="E1608" t="s">
         <v>870</v>
       </c>
+      <c r="F1608" t="s">
+        <v>884</v>
+      </c>
+      <c r="G1608" t="s">
+        <v>864</v>
+      </c>
       <c r="H1608">
-        <v>34358</v>
+        <v>34348</v>
       </c>
     </row>
     <row r="1609" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1609" t="s">
-        <v>883</v>
-      </c>
       <c r="B1609" t="s">
         <v>96</v>
       </c>
@@ -36487,16 +36504,22 @@
       <c r="E1609" t="s">
         <v>870</v>
       </c>
+      <c r="F1609" t="s">
+        <v>884</v>
+      </c>
+      <c r="G1609" t="s">
+        <v>864</v>
+      </c>
       <c r="H1609">
-        <v>34334</v>
+        <v>33480</v>
       </c>
     </row>
     <row r="1610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1610" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B1610" t="s">
-        <v>856</v>
+        <v>39</v>
       </c>
       <c r="C1610" t="s">
         <v>825</v>
@@ -36507,16 +36530,19 @@
       <c r="E1610" t="s">
         <v>870</v>
       </c>
+      <c r="F1610" t="s">
+        <v>884</v>
+      </c>
+      <c r="G1610" t="s">
+        <v>864</v>
+      </c>
       <c r="H1610">
-        <v>34336</v>
+        <v>34366</v>
       </c>
     </row>
     <row r="1611" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1611" t="s">
-        <v>864</v>
-      </c>
       <c r="B1611" t="s">
-        <v>858</v>
+        <v>9</v>
       </c>
       <c r="C1611" t="s">
         <v>825</v>
@@ -36530,13 +36556,16 @@
       <c r="F1611" t="s">
         <v>884</v>
       </c>
+      <c r="G1611" t="s">
+        <v>864</v>
+      </c>
       <c r="H1611">
-        <v>24860</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1612" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B1612" t="s">
         <v>39</v>
@@ -36557,12 +36586,15 @@
         <v>864</v>
       </c>
       <c r="H1612">
-        <v>34348</v>
+        <v>34360</v>
       </c>
     </row>
     <row r="1613" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1613" t="s">
+        <v>885</v>
+      </c>
       <c r="B1613" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="C1613" t="s">
         <v>825</v>
@@ -36574,21 +36606,15 @@
         <v>870</v>
       </c>
       <c r="F1613" t="s">
-        <v>884</v>
-      </c>
-      <c r="G1613" t="s">
         <v>864</v>
       </c>
       <c r="H1613">
-        <v>33480</v>
+        <v>34348</v>
       </c>
     </row>
     <row r="1614" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1614" t="s">
-        <v>886</v>
-      </c>
       <c r="B1614" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C1614" t="s">
         <v>825</v>
@@ -36600,18 +36626,21 @@
         <v>870</v>
       </c>
       <c r="F1614" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="G1614" t="s">
-        <v>864</v>
+        <v>885</v>
       </c>
       <c r="H1614">
-        <v>34366</v>
+        <v>33480</v>
       </c>
     </row>
     <row r="1615" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1615" t="s">
+        <v>886</v>
+      </c>
       <c r="B1615" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C1615" t="s">
         <v>825</v>
@@ -36623,21 +36652,15 @@
         <v>870</v>
       </c>
       <c r="F1615" t="s">
-        <v>884</v>
-      </c>
-      <c r="G1615" t="s">
         <v>864</v>
       </c>
       <c r="H1615">
-        <v>22579</v>
+        <v>34366</v>
       </c>
     </row>
     <row r="1616" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1616" t="s">
-        <v>887</v>
-      </c>
       <c r="B1616" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C1616" t="s">
         <v>825</v>
@@ -36649,13 +36672,13 @@
         <v>870</v>
       </c>
       <c r="F1616" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="G1616" t="s">
-        <v>864</v>
+        <v>886</v>
       </c>
       <c r="H1616">
-        <v>34360</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1617" spans="1:8" x14ac:dyDescent="0.25">
@@ -36674,9 +36697,6 @@
       <c r="E1617" t="s">
         <v>870</v>
       </c>
-      <c r="F1617" t="s">
-        <v>864</v>
-      </c>
       <c r="H1617">
         <v>34348</v>
       </c>
@@ -36695,9 +36715,6 @@
         <v>870</v>
       </c>
       <c r="F1618" t="s">
-        <v>864</v>
-      </c>
-      <c r="G1618" t="s">
         <v>885</v>
       </c>
       <c r="H1618">
@@ -36720,9 +36737,6 @@
       <c r="E1619" t="s">
         <v>870</v>
       </c>
-      <c r="F1619" t="s">
-        <v>864</v>
-      </c>
       <c r="H1619">
         <v>34366</v>
       </c>
@@ -36741,9 +36755,6 @@
         <v>870</v>
       </c>
       <c r="F1620" t="s">
-        <v>864</v>
-      </c>
-      <c r="G1620" t="s">
         <v>886</v>
       </c>
       <c r="H1620">
@@ -36752,7 +36763,7 @@
     </row>
     <row r="1621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1621" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B1621" t="s">
         <v>39</v>
@@ -36766,13 +36777,19 @@
       <c r="E1621" t="s">
         <v>870</v>
       </c>
+      <c r="F1621" t="s">
+        <v>864</v>
+      </c>
       <c r="H1621">
-        <v>34348</v>
+        <v>34360</v>
       </c>
     </row>
     <row r="1622" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1622" t="s">
+        <v>887</v>
+      </c>
       <c r="B1622" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="C1622" t="s">
         <v>825</v>
@@ -36783,130 +36800,121 @@
       <c r="E1622" t="s">
         <v>870</v>
       </c>
-      <c r="F1622" t="s">
-        <v>885</v>
-      </c>
       <c r="H1622">
-        <v>33480</v>
+        <v>34360</v>
       </c>
     </row>
     <row r="1623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1623" t="s">
-        <v>886</v>
+        <v>13</v>
       </c>
       <c r="B1623" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C1623" t="s">
         <v>825</v>
       </c>
-      <c r="D1623" t="s">
-        <v>852</v>
-      </c>
-      <c r="E1623" t="s">
-        <v>870</v>
-      </c>
       <c r="H1623">
-        <v>34366</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1624" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1624" t="s">
+        <v>888</v>
+      </c>
       <c r="B1624" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C1624" t="s">
         <v>825</v>
       </c>
-      <c r="D1624" t="s">
-        <v>852</v>
-      </c>
-      <c r="E1624" t="s">
-        <v>870</v>
-      </c>
-      <c r="F1624" t="s">
-        <v>886</v>
-      </c>
       <c r="H1624">
-        <v>22579</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="1625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1625" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B1625" t="s">
-        <v>39</v>
+        <v>854</v>
       </c>
       <c r="C1625" t="s">
         <v>825</v>
       </c>
       <c r="D1625" t="s">
-        <v>852</v>
-      </c>
-      <c r="E1625" t="s">
-        <v>870</v>
-      </c>
-      <c r="F1625" t="s">
-        <v>864</v>
+        <v>888</v>
       </c>
       <c r="H1625">
-        <v>34360</v>
+        <v>24191</v>
       </c>
     </row>
     <row r="1626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1626" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="B1626" t="s">
-        <v>39</v>
+        <v>856</v>
       </c>
       <c r="C1626" t="s">
         <v>825</v>
       </c>
       <c r="D1626" t="s">
-        <v>852</v>
+        <v>888</v>
       </c>
       <c r="E1626" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="H1626">
-        <v>34360</v>
+        <v>24193</v>
       </c>
     </row>
     <row r="1627" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1627" t="s">
-        <v>13</v>
-      </c>
       <c r="B1627" t="s">
-        <v>9</v>
+        <v>858</v>
       </c>
       <c r="C1627" t="s">
         <v>825</v>
       </c>
+      <c r="D1627" t="s">
+        <v>888</v>
+      </c>
+      <c r="E1627" t="s">
+        <v>889</v>
+      </c>
+      <c r="F1627" t="s">
+        <v>890</v>
+      </c>
       <c r="H1627">
-        <v>3</v>
+        <v>33917</v>
       </c>
     </row>
     <row r="1628" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1628" t="s">
-        <v>888</v>
-      </c>
       <c r="B1628" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1628" t="s">
         <v>825</v>
       </c>
+      <c r="D1628" t="s">
+        <v>888</v>
+      </c>
+      <c r="E1628" t="s">
+        <v>889</v>
+      </c>
+      <c r="F1628" t="s">
+        <v>890</v>
+      </c>
       <c r="H1628">
-        <v>24190</v>
+        <v>33917</v>
       </c>
     </row>
     <row r="1629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1629" t="s">
-        <v>889</v>
+        <v>834</v>
       </c>
       <c r="B1629" t="s">
-        <v>854</v>
+        <v>9</v>
       </c>
       <c r="C1629" t="s">
         <v>825</v>
@@ -36914,16 +36922,22 @@
       <c r="D1629" t="s">
         <v>888</v>
       </c>
+      <c r="E1629" t="s">
+        <v>889</v>
+      </c>
+      <c r="F1629" t="s">
+        <v>890</v>
+      </c>
       <c r="H1629">
-        <v>24191</v>
+        <v>33912</v>
       </c>
     </row>
     <row r="1630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1630" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B1630" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C1630" t="s">
         <v>825</v>
@@ -36934,13 +36948,19 @@
       <c r="E1630" t="s">
         <v>889</v>
       </c>
+      <c r="F1630" t="s">
+        <v>890</v>
+      </c>
       <c r="H1630">
-        <v>24193</v>
+        <v>22205</v>
       </c>
     </row>
     <row r="1631" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1631" t="s">
+        <v>891</v>
+      </c>
       <c r="B1631" t="s">
-        <v>858</v>
+        <v>39</v>
       </c>
       <c r="C1631" t="s">
         <v>825</v>
@@ -36954,11 +36974,17 @@
       <c r="F1631" t="s">
         <v>890</v>
       </c>
+      <c r="G1631" t="s">
+        <v>891</v>
+      </c>
       <c r="H1631">
-        <v>33917</v>
+        <v>22205</v>
       </c>
     </row>
     <row r="1632" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1632" t="s">
+        <v>892</v>
+      </c>
       <c r="B1632" t="s">
         <v>39</v>
       </c>
@@ -36974,16 +37000,19 @@
       <c r="F1632" t="s">
         <v>890</v>
       </c>
+      <c r="G1632" t="s">
+        <v>891</v>
+      </c>
       <c r="H1632">
-        <v>33917</v>
+        <v>20586</v>
       </c>
     </row>
     <row r="1633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1633" t="s">
-        <v>834</v>
+        <v>893</v>
       </c>
       <c r="B1633" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C1633" t="s">
         <v>825</v>
@@ -36997,16 +37026,19 @@
       <c r="F1633" t="s">
         <v>890</v>
       </c>
+      <c r="G1633" t="s">
+        <v>891</v>
+      </c>
       <c r="H1633">
-        <v>33912</v>
+        <v>22192</v>
       </c>
     </row>
     <row r="1634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1634" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="B1634" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C1634" t="s">
         <v>825</v>
@@ -37017,19 +37049,16 @@
       <c r="E1634" t="s">
         <v>889</v>
       </c>
-      <c r="F1634" t="s">
-        <v>890</v>
-      </c>
       <c r="H1634">
-        <v>22205</v>
+        <v>18196</v>
       </c>
     </row>
     <row r="1635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1635" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="B1635" t="s">
-        <v>39</v>
+        <v>858</v>
       </c>
       <c r="C1635" t="s">
         <v>825</v>
@@ -37041,18 +37070,15 @@
         <v>889</v>
       </c>
       <c r="F1635" t="s">
-        <v>890</v>
-      </c>
-      <c r="G1635" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="H1635">
-        <v>22205</v>
+        <v>20584</v>
       </c>
     </row>
     <row r="1636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1636" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B1636" t="s">
         <v>39</v>
@@ -37067,21 +37093,21 @@
         <v>889</v>
       </c>
       <c r="F1636" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="G1636" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="H1636">
-        <v>20586</v>
+        <v>22189</v>
       </c>
     </row>
     <row r="1637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1637" t="s">
-        <v>893</v>
+        <v>496</v>
       </c>
       <c r="B1637" t="s">
-        <v>39</v>
+        <v>858</v>
       </c>
       <c r="C1637" t="s">
         <v>825</v>
@@ -37093,21 +37119,18 @@
         <v>889</v>
       </c>
       <c r="F1637" t="s">
-        <v>890</v>
-      </c>
-      <c r="G1637" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="H1637">
-        <v>22192</v>
+        <v>16122</v>
       </c>
     </row>
     <row r="1638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1638" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="B1638" t="s">
-        <v>856</v>
+        <v>39</v>
       </c>
       <c r="C1638" t="s">
         <v>825</v>
@@ -37118,128 +37141,119 @@
       <c r="E1638" t="s">
         <v>889</v>
       </c>
+      <c r="F1638" t="s">
+        <v>894</v>
+      </c>
+      <c r="G1638" t="s">
+        <v>496</v>
+      </c>
       <c r="H1638">
-        <v>18196</v>
+        <v>22190</v>
       </c>
     </row>
     <row r="1639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1639" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="B1639" t="s">
-        <v>858</v>
+        <v>36</v>
       </c>
       <c r="C1639" t="s">
         <v>825</v>
       </c>
-      <c r="D1639" t="s">
-        <v>888</v>
-      </c>
-      <c r="E1639" t="s">
-        <v>889</v>
-      </c>
-      <c r="F1639" t="s">
-        <v>894</v>
-      </c>
       <c r="H1639">
-        <v>20584</v>
+        <v>18244</v>
       </c>
     </row>
     <row r="1640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1640" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="B1640" t="s">
-        <v>39</v>
+        <v>900</v>
       </c>
       <c r="C1640" t="s">
         <v>825</v>
       </c>
       <c r="D1640" t="s">
-        <v>888</v>
-      </c>
-      <c r="E1640" t="s">
-        <v>889</v>
-      </c>
-      <c r="F1640" t="s">
-        <v>894</v>
-      </c>
-      <c r="G1640" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="H1640">
-        <v>22189</v>
+        <v>20446</v>
       </c>
     </row>
     <row r="1641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1641" t="s">
-        <v>496</v>
+        <v>901</v>
       </c>
       <c r="B1641" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C1641" t="s">
         <v>825</v>
       </c>
       <c r="D1641" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="E1641" t="s">
-        <v>889</v>
-      </c>
-      <c r="F1641" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="H1641">
-        <v>16122</v>
+        <v>22121</v>
       </c>
     </row>
     <row r="1642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1642" t="s">
-        <v>897</v>
+        <v>15</v>
       </c>
       <c r="B1642" t="s">
-        <v>39</v>
+        <v>858</v>
       </c>
       <c r="C1642" t="s">
         <v>825</v>
       </c>
       <c r="D1642" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="E1642" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="F1642" t="s">
-        <v>894</v>
-      </c>
-      <c r="G1642" t="s">
-        <v>496</v>
+        <v>901</v>
       </c>
       <c r="H1642">
-        <v>22190</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="1643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1643" t="s">
-        <v>898</v>
+        <v>40</v>
       </c>
       <c r="B1643" t="s">
-        <v>36</v>
+        <v>858</v>
       </c>
       <c r="C1643" t="s">
         <v>825</v>
       </c>
+      <c r="D1643" t="s">
+        <v>898</v>
+      </c>
+      <c r="E1643" t="s">
+        <v>899</v>
+      </c>
+      <c r="F1643" t="s">
+        <v>901</v>
+      </c>
       <c r="H1643">
-        <v>18244</v>
+        <v>15948</v>
       </c>
     </row>
     <row r="1644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1644" t="s">
-        <v>899</v>
+        <v>16</v>
       </c>
       <c r="B1644" t="s">
-        <v>900</v>
+        <v>858</v>
       </c>
       <c r="C1644" t="s">
         <v>825</v>
@@ -37247,102 +37261,81 @@
       <c r="D1644" t="s">
         <v>898</v>
       </c>
+      <c r="E1644" t="s">
+        <v>899</v>
+      </c>
+      <c r="F1644" t="s">
+        <v>901</v>
+      </c>
       <c r="H1644">
-        <v>20446</v>
+        <v>109</v>
       </c>
     </row>
     <row r="1645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1645" t="s">
-        <v>901</v>
+        <v>483</v>
       </c>
       <c r="B1645" t="s">
-        <v>856</v>
+        <v>9</v>
       </c>
       <c r="C1645" t="s">
         <v>825</v>
       </c>
-      <c r="D1645" t="s">
-        <v>898</v>
-      </c>
-      <c r="E1645" t="s">
-        <v>899</v>
-      </c>
       <c r="H1645">
-        <v>22121</v>
+        <v>11268</v>
       </c>
     </row>
     <row r="1646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1646" t="s">
-        <v>15</v>
+        <v>902</v>
       </c>
       <c r="B1646" t="s">
-        <v>858</v>
+        <v>36</v>
       </c>
       <c r="C1646" t="s">
         <v>825</v>
       </c>
-      <c r="D1646" t="s">
-        <v>898</v>
-      </c>
-      <c r="E1646" t="s">
-        <v>899</v>
-      </c>
-      <c r="F1646" t="s">
-        <v>901</v>
-      </c>
       <c r="H1646">
-        <v>2521</v>
+        <v>20802</v>
       </c>
     </row>
     <row r="1647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1647" t="s">
-        <v>40</v>
+        <v>903</v>
       </c>
       <c r="B1647" t="s">
-        <v>858</v>
+        <v>39</v>
       </c>
       <c r="C1647" t="s">
         <v>825</v>
       </c>
       <c r="D1647" t="s">
-        <v>898</v>
-      </c>
-      <c r="E1647" t="s">
-        <v>899</v>
-      </c>
-      <c r="F1647" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1647">
-        <v>15948</v>
+        <v>24423</v>
       </c>
     </row>
     <row r="1648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1648" t="s">
-        <v>16</v>
+        <v>904</v>
       </c>
       <c r="B1648" t="s">
-        <v>858</v>
+        <v>39</v>
       </c>
       <c r="C1648" t="s">
         <v>825</v>
       </c>
       <c r="D1648" t="s">
-        <v>898</v>
-      </c>
-      <c r="E1648" t="s">
-        <v>899</v>
-      </c>
-      <c r="F1648" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1648">
-        <v>109</v>
+        <v>33755</v>
       </c>
     </row>
     <row r="1649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1649" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B1649" t="s">
         <v>9</v>
@@ -37350,27 +37343,36 @@
       <c r="C1649" t="s">
         <v>825</v>
       </c>
+      <c r="D1649" t="s">
+        <v>902</v>
+      </c>
+      <c r="E1649" t="s">
+        <v>904</v>
+      </c>
       <c r="H1649">
-        <v>11268</v>
+        <v>33756</v>
       </c>
     </row>
     <row r="1650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1650" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="B1650" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1650" t="s">
         <v>825</v>
       </c>
+      <c r="D1650" t="s">
+        <v>902</v>
+      </c>
       <c r="H1650">
-        <v>20802</v>
+        <v>24850</v>
       </c>
     </row>
     <row r="1651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1651" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="B1651" t="s">
         <v>39</v>
@@ -37382,12 +37384,12 @@
         <v>902</v>
       </c>
       <c r="H1651">
-        <v>24423</v>
+        <v>25368</v>
       </c>
     </row>
     <row r="1652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1652" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B1652" t="s">
         <v>39</v>
@@ -37399,15 +37401,15 @@
         <v>902</v>
       </c>
       <c r="H1652">
-        <v>33755</v>
+        <v>24207</v>
       </c>
     </row>
     <row r="1653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1653" t="s">
-        <v>477</v>
+        <v>908</v>
       </c>
       <c r="B1653" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C1653" t="s">
         <v>825</v>
@@ -37415,16 +37417,13 @@
       <c r="D1653" t="s">
         <v>902</v>
       </c>
-      <c r="E1653" t="s">
-        <v>904</v>
-      </c>
       <c r="H1653">
-        <v>33756</v>
+        <v>24952</v>
       </c>
     </row>
     <row r="1654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1654" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="B1654" t="s">
         <v>39</v>
@@ -37436,15 +37435,12 @@
         <v>902</v>
       </c>
       <c r="H1654">
-        <v>24850</v>
+        <v>24424</v>
       </c>
     </row>
     <row r="1655" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1655" t="s">
-        <v>906</v>
-      </c>
       <c r="B1655" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C1655" t="s">
         <v>825</v>
@@ -37452,13 +37448,16 @@
       <c r="D1655" t="s">
         <v>902</v>
       </c>
+      <c r="E1655" t="s">
+        <v>909</v>
+      </c>
       <c r="H1655">
-        <v>25368</v>
+        <v>24421</v>
       </c>
     </row>
     <row r="1656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1656" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B1656" t="s">
         <v>39</v>
@@ -37470,12 +37469,12 @@
         <v>902</v>
       </c>
       <c r="H1656">
-        <v>24207</v>
+        <v>22547</v>
       </c>
     </row>
     <row r="1657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1657" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="B1657" t="s">
         <v>39</v>
@@ -37487,12 +37486,12 @@
         <v>902</v>
       </c>
       <c r="H1657">
-        <v>24952</v>
+        <v>20511</v>
       </c>
     </row>
     <row r="1658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1658" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="B1658" t="s">
         <v>39</v>
@@ -37504,10 +37503,13 @@
         <v>902</v>
       </c>
       <c r="H1658">
-        <v>24424</v>
+        <v>34138</v>
       </c>
     </row>
     <row r="1659" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1659" t="s">
+        <v>913</v>
+      </c>
       <c r="B1659" t="s">
         <v>9</v>
       </c>
@@ -37518,15 +37520,15 @@
         <v>902</v>
       </c>
       <c r="E1659" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="H1659">
-        <v>24421</v>
+        <v>34139</v>
       </c>
     </row>
     <row r="1660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1660" t="s">
-        <v>910</v>
+        <v>476</v>
       </c>
       <c r="B1660" t="s">
         <v>39</v>
@@ -37538,15 +37540,15 @@
         <v>902</v>
       </c>
       <c r="H1660">
-        <v>22547</v>
+        <v>27331</v>
       </c>
     </row>
     <row r="1661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1661" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B1661" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C1661" t="s">
         <v>825</v>
@@ -37554,16 +37556,19 @@
       <c r="D1661" t="s">
         <v>902</v>
       </c>
+      <c r="E1661" t="s">
+        <v>476</v>
+      </c>
       <c r="H1661">
-        <v>20511</v>
+        <v>27363</v>
       </c>
     </row>
     <row r="1662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1662" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B1662" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C1662" t="s">
         <v>825</v>
@@ -37571,13 +37576,16 @@
       <c r="D1662" t="s">
         <v>902</v>
       </c>
+      <c r="E1662" t="s">
+        <v>476</v>
+      </c>
       <c r="H1662">
-        <v>34138</v>
+        <v>27364</v>
       </c>
     </row>
     <row r="1663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1663" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="B1663" t="s">
         <v>9</v>
@@ -37589,18 +37597,18 @@
         <v>902</v>
       </c>
       <c r="E1663" t="s">
-        <v>912</v>
+        <v>476</v>
       </c>
       <c r="H1663">
-        <v>34139</v>
+        <v>27365</v>
       </c>
     </row>
     <row r="1664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1664" t="s">
-        <v>476</v>
+        <v>917</v>
       </c>
       <c r="B1664" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C1664" t="s">
         <v>825</v>
@@ -37608,16 +37616,19 @@
       <c r="D1664" t="s">
         <v>902</v>
       </c>
+      <c r="E1664" t="s">
+        <v>476</v>
+      </c>
       <c r="H1664">
-        <v>27331</v>
+        <v>27366</v>
       </c>
     </row>
     <row r="1665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1665" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="B1665" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C1665" t="s">
         <v>825</v>
@@ -37625,19 +37636,16 @@
       <c r="D1665" t="s">
         <v>902</v>
       </c>
-      <c r="E1665" t="s">
-        <v>476</v>
-      </c>
       <c r="H1665">
-        <v>27363</v>
+        <v>18158</v>
       </c>
     </row>
     <row r="1666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1666" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="B1666" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C1666" t="s">
         <v>825</v>
@@ -37645,56 +37653,44 @@
       <c r="D1666" t="s">
         <v>902</v>
       </c>
-      <c r="E1666" t="s">
-        <v>476</v>
-      </c>
       <c r="H1666">
-        <v>27364</v>
+        <v>26945</v>
       </c>
     </row>
     <row r="1667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1667" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="B1667" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C1667" t="s">
         <v>825</v>
       </c>
-      <c r="D1667" t="s">
-        <v>902</v>
-      </c>
-      <c r="E1667" t="s">
-        <v>476</v>
-      </c>
       <c r="H1667">
-        <v>27365</v>
+        <v>27265</v>
       </c>
     </row>
     <row r="1668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1668" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B1668" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C1668" t="s">
         <v>825</v>
       </c>
       <c r="D1668" t="s">
-        <v>902</v>
-      </c>
-      <c r="E1668" t="s">
-        <v>476</v>
+        <v>920</v>
       </c>
       <c r="H1668">
-        <v>27366</v>
+        <v>27266</v>
       </c>
     </row>
     <row r="1669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1669" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="B1669" t="s">
         <v>39</v>
@@ -37703,15 +37699,15 @@
         <v>825</v>
       </c>
       <c r="D1669" t="s">
-        <v>902</v>
+        <v>920</v>
       </c>
       <c r="H1669">
-        <v>18158</v>
+        <v>27267</v>
       </c>
     </row>
     <row r="1670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1670" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B1670" t="s">
         <v>39</v>
@@ -37720,102 +37716,51 @@
         <v>825</v>
       </c>
       <c r="D1670" t="s">
-        <v>902</v>
+        <v>920</v>
       </c>
       <c r="H1670">
-        <v>26945</v>
+        <v>27268</v>
       </c>
     </row>
     <row r="1671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1671" t="s">
-        <v>920</v>
+        <v>490</v>
       </c>
       <c r="B1671" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C1671" t="s">
         <v>825</v>
       </c>
       <c r="H1671">
-        <v>27265</v>
+        <v>26904</v>
       </c>
     </row>
     <row r="1672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1672" t="s">
-        <v>921</v>
+        <v>475</v>
       </c>
       <c r="B1672" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C1672" t="s">
         <v>825</v>
       </c>
-      <c r="D1672" t="s">
-        <v>920</v>
-      </c>
       <c r="H1672">
-        <v>27266</v>
+        <v>27302</v>
       </c>
     </row>
     <row r="1673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1673" t="s">
-        <v>922</v>
+        <v>489</v>
       </c>
       <c r="B1673" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C1673" t="s">
         <v>825</v>
       </c>
-      <c r="D1673" t="s">
-        <v>920</v>
-      </c>
       <c r="H1673">
-        <v>27267</v>
-      </c>
-    </row>
-    <row r="1674" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1674" t="s">
-        <v>923</v>
-      </c>
-      <c r="B1674" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1674" t="s">
-        <v>825</v>
-      </c>
-      <c r="D1674" t="s">
-        <v>920</v>
-      </c>
-      <c r="H1674">
-        <v>27268</v>
-      </c>
-    </row>
-    <row r="1675" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1675" t="s">
-        <v>490</v>
-      </c>
-      <c r="B1675" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1675" t="s">
-        <v>825</v>
-      </c>
-      <c r="H1675">
-        <v>26904</v>
-      </c>
-    </row>
-    <row r="1676" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1676" t="s">
-        <v>489</v>
-      </c>
-      <c r="B1676" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1676" t="s">
-        <v>825</v>
-      </c>
-      <c r="H1676">
         <v>11323</v>
       </c>
     </row>
